--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_20_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893879.5947353415</v>
+        <v>-896428.2519213617</v>
       </c>
     </row>
     <row r="7">
@@ -659,7 +659,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>59.35355245364757</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>85.48001049171552</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -823,7 +823,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>48.6133474517996</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -832,7 +832,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>213.0056778728016</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +899,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -908,10 +908,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>224.2966770777415</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,16 +953,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>29.24094653898423</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1054,25 +1054,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>161.3268067805853</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>261.5688419666993</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,16 +1130,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>170.6047553962379</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,16 +1184,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>228.5930019368674</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1288,13 +1288,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,13 +1303,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>95.3365842204723</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>10.09723175148173</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1373,7 +1373,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620682</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>105.7906564314218</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>36.22494343870151</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1774,7 +1774,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1819,10 +1819,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>191.2560787872415</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>16.93966244919647</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518788</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576151</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -1938,7 +1938,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>112.3085276221532</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2017,10 +2017,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428122</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2090,7 +2090,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417101</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
         <v>409.8033385187866</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695652</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>66.78466399819912</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>83.06560892428277</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272882</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462238</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2521,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012163</v>
+        <v>66.37524671012167</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016445</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>228.955370467303</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>179.2445652598086</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2713,16 +2713,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>117.8112368377018</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>26.05480806223606</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>41.33703994142998</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>170.9457618790568</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3032,7 +3032,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>164.2607468869782</v>
+        <v>164.2607468869785</v>
       </c>
       <c r="C34" t="n">
-        <v>151.6755878036688</v>
+        <v>151.6755878036691</v>
       </c>
       <c r="D34" t="n">
-        <v>133.0442397232533</v>
+        <v>133.0442397232536</v>
       </c>
       <c r="E34" t="n">
-        <v>103.7817923049851</v>
+        <v>118.6723819134228</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>149.9529049973098</v>
+        <v>149.9529049973101</v>
       </c>
       <c r="H34" t="n">
-        <v>124.7234795512648</v>
+        <v>124.7234795512651</v>
       </c>
       <c r="I34" t="n">
-        <v>65.69460302360648</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>50.80401341516291</v>
       </c>
       <c r="S34" t="n">
-        <v>165.4550527066855</v>
+        <v>165.4550527066858</v>
       </c>
       <c r="T34" t="n">
-        <v>201.8342170323292</v>
+        <v>201.8342170323295</v>
       </c>
       <c r="U34" t="n">
-        <v>270.6132410942851</v>
+        <v>270.6132410942854</v>
       </c>
       <c r="V34" t="n">
-        <v>236.5664100288689</v>
+        <v>236.5664100288692</v>
       </c>
       <c r="W34" t="n">
-        <v>270.9517650416319</v>
+        <v>270.9517650416323</v>
       </c>
       <c r="X34" t="n">
-        <v>210.1384220940781</v>
+        <v>210.1384220940784</v>
       </c>
       <c r="Y34" t="n">
-        <v>203.0134200571357</v>
+        <v>203.013420057136</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3427,13 +3427,13 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261725</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
         <v>122.1493151545294</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308914</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206816</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1285.591601078694</v>
+        <v>1930.094988518961</v>
       </c>
       <c r="C2" t="n">
-        <v>1285.591601078694</v>
+        <v>1561.13247157855</v>
       </c>
       <c r="D2" t="n">
-        <v>927.3259024719437</v>
+        <v>1202.866772971799</v>
       </c>
       <c r="E2" t="n">
-        <v>541.5376498736996</v>
+        <v>817.078520373555</v>
       </c>
       <c r="F2" t="n">
-        <v>541.5376498736996</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="G2" t="n">
-        <v>126.4651997186961</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993392</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3119.628073993392</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2788.565186649821</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2435.796531379708</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X2" t="n">
-        <v>2062.330773118628</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="Y2" t="n">
-        <v>1672.191441142816</v>
+        <v>2316.694828583083</v>
       </c>
     </row>
     <row r="3">
@@ -4383,37 +4383,37 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4462,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>749.2621142610712</v>
+        <v>994.2880032601525</v>
       </c>
       <c r="C4" t="n">
-        <v>580.3259313331644</v>
+        <v>825.3518203322457</v>
       </c>
       <c r="D4" t="n">
-        <v>430.2092919208286</v>
+        <v>675.2351809199099</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>527.3220873375169</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574644</v>
+        <v>380.4321398396067</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4495,43 +4495,43 @@
         <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760401</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088492</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1735.608663915319</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="T4" t="n">
-        <v>1513.842048484845</v>
+        <v>1645.778206672846</v>
       </c>
       <c r="U4" t="n">
-        <v>1224.739181610488</v>
+        <v>1430.620956296279</v>
       </c>
       <c r="V4" t="n">
-        <v>970.0546934046014</v>
+        <v>1175.936468090392</v>
       </c>
       <c r="W4" t="n">
-        <v>970.0546934046014</v>
+        <v>1175.936468090392</v>
       </c>
       <c r="X4" t="n">
-        <v>970.0546934046014</v>
+        <v>1175.936468090392</v>
       </c>
       <c r="Y4" t="n">
-        <v>749.2621142610712</v>
+        <v>1175.936468090392</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1458.811090838974</v>
+        <v>2303.170539913434</v>
       </c>
       <c r="C5" t="n">
-        <v>1089.848573898562</v>
+        <v>1934.208022973022</v>
       </c>
       <c r="D5" t="n">
-        <v>1089.848573898562</v>
+        <v>1575.942324366272</v>
       </c>
       <c r="E5" t="n">
-        <v>704.0603213003178</v>
+        <v>1190.154071768027</v>
       </c>
       <c r="F5" t="n">
-        <v>293.0744165107103</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G5" t="n">
-        <v>66.5121164321834</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410101</v>
+        <v>3042.53903524767</v>
       </c>
       <c r="W5" t="n">
-        <v>2609.016021139987</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="X5" t="n">
-        <v>2235.550262878907</v>
+        <v>2689.770379977556</v>
       </c>
       <c r="Y5" t="n">
-        <v>1845.410930903096</v>
+        <v>2689.770379977556</v>
       </c>
     </row>
     <row r="6">
@@ -4620,10 +4620,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811086</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999816</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
         <v>618.1564155387305</v>
@@ -4632,46 +4632,46 @@
         <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.38440256016</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927786</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064628</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>623.1279902937557</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="C7" t="n">
-        <v>460.171619808316</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D7" t="n">
-        <v>310.0549803959802</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959802</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U7" t="n">
-        <v>1326.59460854119</v>
+        <v>1249.631097003331</v>
       </c>
       <c r="V7" t="n">
-        <v>1071.910120335303</v>
+        <v>1249.631097003331</v>
       </c>
       <c r="W7" t="n">
-        <v>1071.910120335303</v>
+        <v>960.2139269663701</v>
       </c>
       <c r="X7" t="n">
-        <v>843.9205694372858</v>
+        <v>732.2243760683527</v>
       </c>
       <c r="Y7" t="n">
-        <v>623.1279902937557</v>
+        <v>511.4317969248226</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1792.126722677732</v>
+        <v>1986.901740067214</v>
       </c>
       <c r="C8" t="n">
-        <v>1423.164205737321</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="D8" t="n">
-        <v>1064.89850713057</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1064.89850713057</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>653.9126023409626</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>238.8401521859591</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
         <v>66.51211643218342</v>
@@ -4805,13 +4805,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4832,22 +4832,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653544</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="X8" t="n">
-        <v>2182.266054653544</v>
+        <v>2763.640912107148</v>
       </c>
       <c r="Y8" t="n">
-        <v>1792.126722677732</v>
+        <v>2373.501580131336</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387314</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
         <v>1685.951113992584</v>
@@ -4905,16 +4905,16 @@
         <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199866</v>
@@ -4926,7 +4926,7 @@
         <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,25 +4936,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>510.7590362090544</v>
+        <v>793.5809963705858</v>
       </c>
       <c r="C10" t="n">
-        <v>510.7590362090544</v>
+        <v>624.6448134426789</v>
       </c>
       <c r="D10" t="n">
-        <v>360.6423967967187</v>
+        <v>624.6448134426789</v>
       </c>
       <c r="E10" t="n">
-        <v>212.7293032143256</v>
+        <v>476.7317198602858</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143256</v>
+        <v>476.7317198602858</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>309.0288832350047</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>162.8116964528625</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4984,28 +4984,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1917.095324097097</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1725.409439923923</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1503.64282449345</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1503.64282449345</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="V10" t="n">
-        <v>1248.958336287563</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="W10" t="n">
-        <v>959.5411662506019</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="X10" t="n">
-        <v>731.5516153525846</v>
+        <v>1196.022040344356</v>
       </c>
       <c r="Y10" t="n">
-        <v>510.7590362090544</v>
+        <v>975.2294612008255</v>
       </c>
     </row>
     <row r="11">
@@ -5015,10 +5015,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5030,31 +5030,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694707</v>
@@ -5066,25 +5066,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N12" t="n">
-        <v>2001.151557821488</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1016.58045691144</v>
+        <v>1057.613315601761</v>
       </c>
       <c r="C13" t="n">
-        <v>847.6442739835329</v>
+        <v>888.6771326738542</v>
       </c>
       <c r="D13" t="n">
-        <v>697.5276345711972</v>
+        <v>738.5604932615186</v>
       </c>
       <c r="E13" t="n">
-        <v>549.614540988804</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5203,7 +5203,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2410.372231621976</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>2190.770766644916</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1901.695539989114</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V13" t="n">
-        <v>1647.011051783227</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="W13" t="n">
-        <v>1647.011051783227</v>
+        <v>1688.043910473548</v>
       </c>
       <c r="X13" t="n">
-        <v>1419.02150088521</v>
+        <v>1460.054359575531</v>
       </c>
       <c r="Y13" t="n">
-        <v>1198.228921741679</v>
+        <v>1239.261780432001</v>
       </c>
     </row>
     <row r="14">
@@ -5267,31 +5267,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,25 +5303,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5349,31 +5349,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
         <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>716.6687843969311</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>716.6687843969311</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1344.266747951538</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190825</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784063</v>
+        <v>784.5811134804959</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504994</v>
+        <v>615.644930552589</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381636</v>
+        <v>465.5282911402533</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782954</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
         <v>826.1405381797742</v>
@@ -5464,22 +5464,22 @@
         <v>2264.108249235164</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258105</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>2044.506784258105</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1851.318825887154</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1561.901655850193</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>966.2295783107356</v>
       </c>
     </row>
     <row r="17">
@@ -5492,64 +5492,64 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F17" t="n">
-        <v>793.773653616861</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438179</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400708</v>
+        <v>915.1035305473746</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121639</v>
+        <v>746.1673476194677</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121639</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121639</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121639</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270438</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797791</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570822</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279807</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1907.98731883177</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1653.302830625883</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1363.885660588922</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138406</v>
+        <v>1135.896109690905</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703105</v>
+        <v>915.1035305473746</v>
       </c>
     </row>
     <row r="20">
@@ -5726,16 +5726,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
         <v>793.7736536168611</v>
@@ -5744,13 +5744,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075809</v>
@@ -5762,40 +5762,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2252.2213777565</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400718</v>
+        <v>915.1035305473705</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121649</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>344.917417812165</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E22" t="n">
-        <v>344.917417812165</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>177.7213185270454</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
         <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1907.987318831766</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1653.302830625879</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1363.885660588918</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>1135.896109690901</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>915.1035305473705</v>
       </c>
     </row>
     <row r="23">
@@ -5978,28 +5978,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797186</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797186</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>691.1951506745237</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1318.79311422913</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188004</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908935</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908936</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908937</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908937</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057737</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6166,31 +6166,31 @@
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533435</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327548</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290587</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925702</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.30924124904</v>
+        <v>803.8641191832229</v>
       </c>
     </row>
     <row r="26">
@@ -6218,55 +6218,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>554.5813165460164</v>
+        <v>734.6461798836011</v>
       </c>
       <c r="C28" t="n">
-        <v>385.6451336181095</v>
+        <v>734.6461798836011</v>
       </c>
       <c r="D28" t="n">
-        <v>235.5284942057738</v>
+        <v>584.5295404712654</v>
       </c>
       <c r="E28" t="n">
-        <v>235.5284942057738</v>
+        <v>436.6164468888721</v>
       </c>
       <c r="F28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2420.645095638608</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2237.790261293512</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2018.188796316454</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1729.113569660651</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1474.429081454764</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1185.011911417804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>957.0223605197863</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y28" t="n">
-        <v>736.2297813762561</v>
+        <v>916.2946447138409</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6437,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075822</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6494,19 +6494,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6537,22 +6537,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>560.7825789706076</v>
+        <v>695.5020655703107</v>
       </c>
       <c r="C31" t="n">
-        <v>391.8463960427007</v>
+        <v>526.5658826424045</v>
       </c>
       <c r="D31" t="n">
-        <v>241.729756630365</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E31" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
         <v>826.1405381797745</v>
@@ -6649,22 +6649,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1480.630343879356</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>963.2236229443776</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y31" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6777,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>830.0516200217985</v>
+        <v>778.7344347539524</v>
       </c>
       <c r="C34" t="n">
-        <v>676.8439555736483</v>
+        <v>625.5267703058018</v>
       </c>
       <c r="D34" t="n">
-        <v>542.4558346410693</v>
+        <v>491.1386493732224</v>
       </c>
       <c r="E34" t="n">
-        <v>437.6257414037104</v>
+        <v>371.2675565313812</v>
       </c>
       <c r="F34" t="n">
-        <v>437.6257414037104</v>
+        <v>371.2675565313812</v>
       </c>
       <c r="G34" t="n">
-        <v>286.158160598347</v>
+        <v>219.7999757260175</v>
       </c>
       <c r="H34" t="n">
-        <v>160.1748479203017</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>189.4682024403052</v>
+        <v>189.4682024403049</v>
       </c>
       <c r="K34" t="n">
-        <v>466.572985927853</v>
+        <v>466.5729859278527</v>
       </c>
       <c r="L34" t="n">
-        <v>872.3871010658027</v>
+        <v>872.387101065802</v>
       </c>
       <c r="M34" t="n">
-        <v>1309.812324758847</v>
+        <v>1309.812324758846</v>
       </c>
       <c r="N34" t="n">
-        <v>1742.637717380865</v>
+        <v>1742.637717380863</v>
       </c>
       <c r="O34" t="n">
-        <v>2127.582519051859</v>
+        <v>2127.582519051858</v>
       </c>
       <c r="P34" t="n">
-        <v>2435.673495587427</v>
+        <v>2435.673495587426</v>
       </c>
       <c r="Q34" t="n">
-        <v>2570.287251276337</v>
+        <v>2570.287251276334</v>
       </c>
       <c r="R34" t="n">
-        <v>2570.287251276337</v>
+        <v>2518.970066008493</v>
       </c>
       <c r="S34" t="n">
-        <v>2403.160935410998</v>
+        <v>2351.843750143154</v>
       </c>
       <c r="T34" t="n">
-        <v>2199.287988913696</v>
+        <v>2147.970803645851</v>
       </c>
       <c r="U34" t="n">
-        <v>1925.94128073765</v>
+        <v>1874.624095469806</v>
       </c>
       <c r="V34" t="n">
-        <v>1686.98531101152</v>
+        <v>1635.668125743675</v>
       </c>
       <c r="W34" t="n">
-        <v>1413.296659454316</v>
+        <v>1361.979474186471</v>
       </c>
       <c r="X34" t="n">
-        <v>1201.035627036055</v>
+        <v>1149.71844176821</v>
       </c>
       <c r="Y34" t="n">
-        <v>995.9715663722816</v>
+        <v>944.6543811044357</v>
       </c>
     </row>
     <row r="35">
@@ -6917,16 +6917,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6935,19 +6935,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,22 +7014,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637306</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7069,10 +7069,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D37" t="n">
         <v>656.9646031150023</v>
@@ -7081,16 +7081,16 @@
         <v>533.5814564942655</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
@@ -7099,7 +7099,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7126,7 +7126,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7148,19 +7148,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
@@ -7205,19 +7205,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7251,19 +7251,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942652</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7354,16 +7354,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R40" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7372,7 +7372,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y40" t="n">
         <v>1084.076049400516</v>
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,22 +7397,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,37 +7424,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150029</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494266</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F43" t="n">
-        <v>411.221455958012</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345482</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311324</v>
@@ -7582,13 +7582,13 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O43" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P43" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q43" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
         <v>2596.781734931274</v>
@@ -7600,16 +7600,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,10 +7780,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D46" t="n">
         <v>656.9646031150024</v>
@@ -7810,13 +7810,13 @@
         <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311319</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656413</v>
+        <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
         <v>2179.340199382518</v>
@@ -7828,10 +7828,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T46" t="n">
         <v>2243.385329532432</v>
@@ -22547,7 +22547,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>235.2542119336729</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,25 +22595,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>300.7579281643381</v>
       </c>
     </row>
     <row r="3">
@@ -22702,7 +22702,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -22711,7 +22711,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>97.82061519476957</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,7 +22720,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -22750,16 +22750,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>73.20616033281127</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -22771,7 +22771,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>40.64330621514742</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,22 +23461,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012469</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>144.8013425629431</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101194</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,10 +23707,10 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>60.8815645365865</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>201.6449909028983</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>36.30694539605912</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194267</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24124,28 +24124,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>100.4621571004287</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>57.22910392194107</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856548</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24418,13 +24418,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>57.22910392194108</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>107.2784330767824</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24601,16 +24601,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>27.60981118522949</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>40.32043864788563</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>107.2784330767824</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>46.45968844823145</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25081,10 +25081,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>27.08093704662505</v>
+        <v>12.1903474381876</v>
       </c>
       <c r="F34" t="n">
-        <v>129.8498147279722</v>
+        <v>129.8498147279725</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>65.69460302360676</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>50.80401341516263</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>187548.4044340063</v>
+        <v>187548.4044340064</v>
       </c>
       <c r="C2" t="n">
         <v>225786.4867126779</v>
@@ -26320,40 +26320,40 @@
         <v>225786.4867126779</v>
       </c>
       <c r="E2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="F2" t="n">
         <v>221965.3149147517</v>
       </c>
       <c r="G2" t="n">
+        <v>221965.3149147517</v>
+      </c>
+      <c r="H2" t="n">
         <v>221965.3149147516</v>
       </c>
-      <c r="H2" t="n">
-        <v>221965.3149147517</v>
-      </c>
       <c r="I2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="J2" t="n">
         <v>221965.3149147517</v>
       </c>
       <c r="K2" t="n">
-        <v>221965.3149147518</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="L2" t="n">
-        <v>224415.4372624254</v>
+        <v>224415.4372624255</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="N2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
         <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
     </row>
     <row r="3">
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>3.620276492381828e-11</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
-        <v>3.620276492381828e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>12456.98663596725</v>
+        <v>12456.98663596702</v>
       </c>
       <c r="M3" t="n">
-        <v>92025.75929317632</v>
+        <v>92025.75929317661</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>4.472927775293948e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26418,43 +26418,43 @@
         <v>12820.12292715301</v>
       </c>
       <c r="C4" t="n">
-        <v>92183.89891818176</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="D4" t="n">
-        <v>92183.89891818173</v>
+        <v>92183.89891818172</v>
       </c>
       <c r="E4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="F4" t="n">
-        <v>12996.86414683051</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="G4" t="n">
-        <v>12996.86414683048</v>
+        <v>12996.86414683044</v>
       </c>
       <c r="H4" t="n">
-        <v>12996.8641468305</v>
+        <v>12996.86414683038</v>
       </c>
       <c r="I4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="J4" t="n">
-        <v>12996.86414683044</v>
+        <v>12996.86414683049</v>
       </c>
       <c r="K4" t="n">
         <v>12996.86414683044</v>
       </c>
       <c r="L4" t="n">
-        <v>18120.57590149353</v>
+        <v>18120.57590149342</v>
       </c>
       <c r="M4" t="n">
-        <v>20987.72340992393</v>
+        <v>20987.72340992392</v>
       </c>
       <c r="N4" t="n">
         <v>20987.72340992391</v>
       </c>
       <c r="O4" t="n">
-        <v>20987.7234099239</v>
+        <v>20987.72340992396</v>
       </c>
       <c r="P4" t="n">
         <v>20987.7234099239</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1261950.404782133</v>
+        <v>-1262298.023711939</v>
       </c>
       <c r="C6" t="n">
-        <v>25668.64723310288</v>
+        <v>25668.64723310291</v>
       </c>
       <c r="D6" t="n">
-        <v>25668.64723310286</v>
+        <v>25668.64723310292</v>
       </c>
       <c r="E6" t="n">
-        <v>-217566.5408633408</v>
+        <v>-217601.2787887767</v>
       </c>
       <c r="F6" t="n">
-        <v>107845.920944014</v>
+        <v>107811.1830185783</v>
       </c>
       <c r="G6" t="n">
-        <v>107845.920944014</v>
+        <v>107811.1830185784</v>
       </c>
       <c r="H6" t="n">
-        <v>107845.920944014</v>
+        <v>107811.1830185784</v>
       </c>
       <c r="I6" t="n">
-        <v>107845.9209440142</v>
+        <v>107811.1830185787</v>
       </c>
       <c r="J6" t="n">
-        <v>-109685.2814532633</v>
+        <v>-109720.0193786989</v>
       </c>
       <c r="K6" t="n">
-        <v>107845.9209440142</v>
+        <v>107811.1830185785</v>
       </c>
       <c r="L6" t="n">
-        <v>91406.28688918358</v>
+        <v>91393.82280327263</v>
       </c>
       <c r="M6" t="n">
-        <v>9608.888155662396</v>
+        <v>9608.888155662178</v>
       </c>
       <c r="N6" t="n">
-        <v>101634.6474488387</v>
+        <v>101634.6474488388</v>
       </c>
       <c r="O6" t="n">
-        <v>101634.6474488389</v>
+        <v>101634.6474488388</v>
       </c>
       <c r="P6" t="n">
-        <v>101634.6474488386</v>
+        <v>101634.6474488388</v>
       </c>
     </row>
   </sheetData>
@@ -26695,16 +26695,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.525345615477284e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.525345615477284e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.525345615477284e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>4.525345615477284e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495877</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
@@ -26802,13 +26802,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>4.525345615477284e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,13 +26932,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.525345615477284e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495877</v>
       </c>
       <c r="M2" t="n">
-        <v>8.713414197080665</v>
+        <v>8.713414197080956</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.591159719117435e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26966,16 +26966,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>4.525345615477284e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>4.525345615477284e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27628,10 +27628,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>186.6250485757119</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
         <v>203.9179701396201</v>
@@ -27673,16 +27673,16 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>298.5113119311507</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>5.920014318042519</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>24.64299623891355</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,16 +27850,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>124.0030089910825</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,16 +27904,16 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>120.6479667805456</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,13 +28008,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28023,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>1.015836189365785</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>78.8349209185656</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28068,10 +28068,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28093,7 +28093,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28293,7 +28293,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>-7.032208304403596e-13</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28530,7 +28530,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>2.299277825606059e-12</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-7.010054671814431e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28615,7 +28615,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>9.734435479913373e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>4.608106488982836e-12</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28810,7 +28810,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-1.236344360222574e-12</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29752,7 +29752,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495877</v>
       </c>
       <c r="C34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495877</v>
       </c>
       <c r="D34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495877</v>
       </c>
       <c r="E34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495877</v>
       </c>
       <c r="F34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495877</v>
       </c>
       <c r="G34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495877</v>
       </c>
       <c r="H34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495877</v>
       </c>
       <c r="I34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495877</v>
       </c>
       <c r="J34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495877</v>
       </c>
       <c r="K34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495877</v>
       </c>
       <c r="L34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495877</v>
       </c>
       <c r="M34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495877</v>
       </c>
       <c r="N34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495877</v>
       </c>
       <c r="O34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495877</v>
       </c>
       <c r="P34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495877</v>
       </c>
       <c r="Q34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495877</v>
       </c>
       <c r="R34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495877</v>
       </c>
       <c r="S34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495877</v>
       </c>
       <c r="T34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495877</v>
       </c>
       <c r="U34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495877</v>
       </c>
       <c r="V34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495877</v>
       </c>
       <c r="W34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495877</v>
       </c>
       <c r="X34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495877</v>
       </c>
       <c r="Y34" t="n">
-        <v>15.57123329495906</v>
+        <v>15.57123329495877</v>
       </c>
     </row>
     <row r="35">
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30040,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="41">
@@ -30463,7 +30463,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
   </sheetData>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31838,25 +31838,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>465.7451325200311</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>279.2419622547064</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
         <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,46 +32148,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236515</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>734.267838362267</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,46 +32385,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,34 +32540,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>437.853104691376</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32576,13 +32576,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32786,16 +32786,16 @@
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>446.0127311990643</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33181,7 +33181,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K29" t="n">
         <v>699.5441750817575</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33275,7 +33275,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33418,7 +33418,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
         <v>699.5441750817575</v>
@@ -33497,10 +33497,10 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
         <v>638.8832749473072</v>
@@ -33512,10 +33512,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33734,10 +33734,10 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33749,10 +33749,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33971,10 +33971,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33986,7 +33986,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34138,7 +34138,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
         <v>981.2715114159425</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34223,7 +34223,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34445,31 +34445,31 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>334.4034204366978</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>140.6875824748323</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.587454168382</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402486</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992797</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191361</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,19 +36203,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>303.8786972770457</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.0464832629534</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
         <v>264.332588409635</v>
@@ -36285,7 +36285,7 @@
         <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
@@ -36434,16 +36434,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>303.8786972770459</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.0464832629534</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
@@ -36528,7 +36528,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K29" t="n">
         <v>479.454324036777</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36923,7 +36923,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
         <v>479.454324036777</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
         <v>500.328895167433</v>
@@ -37160,10 +37160,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>96.61771655791242</v>
+        <v>96.61771655791213</v>
       </c>
       <c r="K34" t="n">
-        <v>279.903821704594</v>
+        <v>279.9038217045937</v>
       </c>
       <c r="L34" t="n">
-        <v>409.9132476140905</v>
+        <v>409.9132476140902</v>
       </c>
       <c r="M34" t="n">
-        <v>441.8436602960042</v>
+        <v>441.8436602960039</v>
       </c>
       <c r="N34" t="n">
-        <v>437.1973662848665</v>
+        <v>437.1973662848662</v>
       </c>
       <c r="O34" t="n">
-        <v>388.8331330010045</v>
+        <v>388.8331330010042</v>
       </c>
       <c r="P34" t="n">
-        <v>311.203006601584</v>
+        <v>311.2030066015837</v>
       </c>
       <c r="Q34" t="n">
-        <v>135.9734905948574</v>
+        <v>135.9734905948571</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,10 +37382,10 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37397,10 +37397,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37619,10 +37619,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37634,7 +37634,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37704,7 +37704,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37786,7 +37786,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37871,7 +37871,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38093,31 +38093,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
